--- a/Dataset/Authors/LUCIL.xlsx
+++ b/Dataset/Authors/LUCIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D36EE9-E39A-43C9-9ACA-E9E28A76D2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C840244A-4FF7-48B7-B709-C625F2F5B932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8ACCF172-D517-4632-BDF2-A16FCEF684DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Compounds</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Semigraecus</t>
+  </si>
+  <si>
+    <t>acupenser</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD2FB35-4E77-409F-969F-38306CC5B89D}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -662,23 +665,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -686,7 +689,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -694,7 +697,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -702,7 +705,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -710,7 +713,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -718,7 +721,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -726,7 +729,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -734,7 +737,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -750,7 +753,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -758,7 +761,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -766,7 +769,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -774,7 +777,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -782,7 +785,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -790,7 +793,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
@@ -798,7 +801,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
@@ -806,7 +809,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -830,7 +833,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -838,7 +841,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -846,7 +849,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -854,7 +857,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -862,7 +865,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
@@ -878,7 +881,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -886,23 +889,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
@@ -918,7 +921,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B38" s="7">
         <v>1</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B40" s="7">
         <v>1</v>
@@ -942,7 +945,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B41" s="7">
         <v>1</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -958,7 +961,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B43" s="7">
         <v>1</v>
@@ -966,7 +969,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7">
         <v>1</v>
@@ -974,7 +977,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7">
         <v>1</v>
@@ -982,7 +985,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B46" s="7">
         <v>1</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B47" s="7">
         <v>1</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B48" s="7">
         <v>1</v>
@@ -1006,7 +1009,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B49" s="7">
         <v>1</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B50" s="7">
         <v>1</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="7">
         <v>1</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B52" s="7">
         <v>1</v>
@@ -1038,15 +1041,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B54" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B53">
-    <sortCondition ref="A6:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B54">
+    <sortCondition ref="A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
